--- a/DDF/Phase2.1/TY_02/TestData_01B.xlsx
+++ b/DDF/Phase2.1/TY_02/TestData_01B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Bimbo Mobile (3)\Bimbo Mobile\DDF\Phase2.1\TY_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TYSS\PROJECT FILES\Bimbo Mobile-TY 25-02-2022\Bimbo Mobile-TY\DDF\Phase2.1\TY_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Data1</t>
   </si>
@@ -33,6 +33,69 @@
   </si>
   <si>
     <t>Delivery Final Summary</t>
+  </si>
+  <si>
+    <t>Odometer Journey not started</t>
+  </si>
+  <si>
+    <t>KPI Dashboard</t>
+  </si>
+  <si>
+    <t>Trade Coverage</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>JINCY_SKU_0</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>ORD REQ DATE:</t>
+  </si>
+  <si>
+    <t>PrintPreviewVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL       </t>
+  </si>
+  <si>
+    <t>ConversionQuantity</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>SP_TC_57</t>
+  </si>
+  <si>
+    <t>SP_TC_58</t>
+  </si>
+  <si>
+    <t>SP_TC_59</t>
+  </si>
+  <si>
+    <t>SP_TC_60</t>
+  </si>
+  <si>
+    <t>ExpectedSKU</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>JINCY_SKU_22_SD</t>
+  </si>
+  <si>
+    <t>JINCY_SKU_01_S</t>
+  </si>
+  <si>
+    <t>Data5</t>
   </si>
 </sst>
 </file>
@@ -350,33 +413,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>